--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5391C488-5F1B-4FFF-8EF9-D0C7D9B30A14}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91E1451-DD31-41B8-A76D-D24AEC339159}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -94,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -141,20 +141,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,7 +165,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,38 +693,35 @@
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_Q_Sheet.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91E1451-DD31-41B8-A76D-D24AEC339159}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
+    <sheet name="Journal (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Journal (3)" sheetId="4" r:id="rId3"/>
+    <sheet name="Journal (4)" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -44,15 +46,18 @@
   <si>
     <t>Credit</t>
   </si>
+  <si>
+    <t>Journal for June</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,20 +72,39 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,8 +117,20 @@
         <bgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF5F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -104,73 +140,472 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="4" tint="0.79998168889431442"/>
       </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="4" tint="0.79998168889431442"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="4" tint="0.79998168889431442"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="4" tint="0.79998168889431442"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="4" tint="0.79998168889431442"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.79998168889431442"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFEF5F0"/>
+      <color rgb="FFFDECE3"/>
+      <color rgb="FFFEF8F4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -180,6 +615,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D37" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:D37">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Date" dataDxfId="7"/>
+    <tableColumn id="2" name="Account" dataDxfId="6"/>
+    <tableColumn id="3" name="Debit" dataDxfId="5"/>
+    <tableColumn id="4" name="Credit" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,253 +931,1272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="2" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="2" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="1.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:B38"/>
+    <mergeCell ref="D3:D38"/>
+    <mergeCell ref="F3:F38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="2" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="2" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="1.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:B38"/>
+    <mergeCell ref="D3:D38"/>
+    <mergeCell ref="F3:F38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.2_Student_Q_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D617A7-CA17-40A6-B92B-52083C530182}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036FAF87-B833-419F-B56F-64684FAA1725}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,17 +84,92 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFDC689"/>
         <bgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -104,11 +179,26 @@
       <right style="thin">
         <color theme="4" tint="0.79998168889431442"/>
       </right>
-      <top style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
       </top>
       <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
         <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -116,15 +206,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -135,6 +243,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9D9D9"/>
+      <color rgb="FFE1A16C"/>
+      <color rgb="FFFDC689"/>
       <color rgb="FFFEF5F0"/>
       <color rgb="FFFDECE3"/>
       <color rgb="FFFEF8F4"/>
@@ -451,7 +562,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,14 +572,14 @@
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -476,220 +587,220 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
